--- a/data/raw/election/voters-age-sex-education/2023/Kütahya.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kütahya.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="42">
   <si>
     <t>Kütahya</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>Tavşanlı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -672,7 +679,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -691,6 +698,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1020,10 +1036,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N342"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110:K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,52 +1054,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2089,17 +2105,17 @@
       <c r="D30" s="5">
         <v>690</v>
       </c>
-      <c r="E30" s="5">
-        <v>5.218</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1.194</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1.718</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2.149</v>
+      <c r="E30" s="7">
+        <v>5218</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1194</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1718</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2149</v>
       </c>
       <c r="I30" s="5">
         <v>844</v>
@@ -2113,15 +2129,15 @@
       <c r="L30" s="5">
         <v>101</v>
       </c>
-      <c r="M30" s="5">
-        <v>12.12</v>
+      <c r="M30" s="7">
+        <v>12120</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3127,8 +3143,8 @@
       <c r="D56" s="5">
         <v>559</v>
       </c>
-      <c r="E56" s="5">
-        <v>3.0870000000000002</v>
+      <c r="E56" s="7">
+        <v>3087</v>
       </c>
       <c r="F56" s="5">
         <v>687</v>
@@ -3136,8 +3152,8 @@
       <c r="G56" s="5">
         <v>955</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.026</v>
+      <c r="H56" s="7">
+        <v>1026</v>
       </c>
       <c r="I56" s="5">
         <v>319</v>
@@ -3151,15 +3167,15 @@
       <c r="L56" s="5">
         <v>40</v>
       </c>
-      <c r="M56" s="5">
-        <v>6.88</v>
+      <c r="M56" s="7">
+        <v>6880</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4165,8 +4181,8 @@
       <c r="D82" s="5">
         <v>617</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.8109999999999999</v>
+      <c r="E82" s="7">
+        <v>1811</v>
       </c>
       <c r="F82" s="5">
         <v>425</v>
@@ -4189,15 +4205,15 @@
       <c r="L82" s="5">
         <v>58</v>
       </c>
-      <c r="M82" s="5">
-        <v>5.0620000000000003</v>
+      <c r="M82" s="7">
+        <v>5062</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5203,20 +5219,20 @@
       <c r="D108" s="5">
         <v>722</v>
       </c>
-      <c r="E108" s="5">
-        <v>4.5270000000000001</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.4889999999999999</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.0609999999999999</v>
+      <c r="E108" s="7">
+        <v>4527</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1259</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1447</v>
+      </c>
+      <c r="H108" s="7">
+        <v>2489</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1061</v>
       </c>
       <c r="J108" s="5">
         <v>85</v>
@@ -5227,15 +5243,15 @@
       <c r="L108" s="5">
         <v>117</v>
       </c>
-      <c r="M108" s="5">
-        <v>11.901</v>
+      <c r="M108" s="7">
+        <v>11901</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5260,7 +5276,7 @@
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L109" s="2" t="s">
@@ -5301,8 +5317,8 @@
       <c r="J110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>15</v>
+      <c r="K110" s="4">
+        <v>0</v>
       </c>
       <c r="L110" s="4">
         <v>2</v>
@@ -5340,8 +5356,8 @@
       <c r="J111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K111" s="4" t="s">
-        <v>15</v>
+      <c r="K111" s="4">
+        <v>0</v>
       </c>
       <c r="L111" s="4">
         <v>2</v>
@@ -5381,8 +5397,8 @@
       <c r="J112" s="4">
         <v>7</v>
       </c>
-      <c r="K112" s="4" t="s">
-        <v>15</v>
+      <c r="K112" s="4">
+        <v>0</v>
       </c>
       <c r="L112" s="4">
         <v>4</v>
@@ -5420,8 +5436,8 @@
       <c r="J113" s="4">
         <v>3</v>
       </c>
-      <c r="K113" s="4" t="s">
-        <v>15</v>
+      <c r="K113" s="4">
+        <v>0</v>
       </c>
       <c r="L113" s="4">
         <v>2</v>
@@ -5461,8 +5477,8 @@
       <c r="J114" s="4">
         <v>2</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>15</v>
+      <c r="K114" s="4">
+        <v>0</v>
       </c>
       <c r="L114" s="4">
         <v>3</v>
@@ -5500,8 +5516,8 @@
       <c r="J115" s="4">
         <v>3</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>15</v>
+      <c r="K115" s="4">
+        <v>0</v>
       </c>
       <c r="L115" s="4">
         <v>1</v>
@@ -5541,8 +5557,8 @@
       <c r="J116" s="4">
         <v>2</v>
       </c>
-      <c r="K116" s="4" t="s">
-        <v>15</v>
+      <c r="K116" s="4">
+        <v>0</v>
       </c>
       <c r="L116" s="4">
         <v>5</v>
@@ -5580,8 +5596,8 @@
       <c r="J117" s="4">
         <v>1</v>
       </c>
-      <c r="K117" s="4" t="s">
-        <v>15</v>
+      <c r="K117" s="4">
+        <v>0</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>15</v>
@@ -5621,8 +5637,8 @@
       <c r="J118" s="4">
         <v>2</v>
       </c>
-      <c r="K118" s="4" t="s">
-        <v>15</v>
+      <c r="K118" s="4">
+        <v>0</v>
       </c>
       <c r="L118" s="4">
         <v>3</v>
@@ -5660,8 +5676,8 @@
       <c r="J119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>15</v>
+      <c r="K119" s="4">
+        <v>0</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>15</v>
@@ -5701,8 +5717,8 @@
       <c r="J120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K120" s="4" t="s">
-        <v>15</v>
+      <c r="K120" s="4">
+        <v>0</v>
       </c>
       <c r="L120" s="4">
         <v>4</v>
@@ -5740,8 +5756,8 @@
       <c r="J121" s="4">
         <v>1</v>
       </c>
-      <c r="K121" s="4" t="s">
-        <v>15</v>
+      <c r="K121" s="4">
+        <v>0</v>
       </c>
       <c r="L121" s="4">
         <v>3</v>
@@ -5781,8 +5797,8 @@
       <c r="J122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K122" s="4" t="s">
-        <v>15</v>
+      <c r="K122" s="4">
+        <v>0</v>
       </c>
       <c r="L122" s="4">
         <v>4</v>
@@ -5820,8 +5836,8 @@
       <c r="J123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K123" s="4" t="s">
-        <v>15</v>
+      <c r="K123" s="4">
+        <v>0</v>
       </c>
       <c r="L123" s="4">
         <v>5</v>
@@ -5861,8 +5877,8 @@
       <c r="J124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K124" s="4" t="s">
-        <v>15</v>
+      <c r="K124" s="4">
+        <v>0</v>
       </c>
       <c r="L124" s="4">
         <v>5</v>
@@ -5900,8 +5916,8 @@
       <c r="J125" s="4">
         <v>1</v>
       </c>
-      <c r="K125" s="4" t="s">
-        <v>15</v>
+      <c r="K125" s="4">
+        <v>0</v>
       </c>
       <c r="L125" s="4">
         <v>4</v>
@@ -5941,8 +5957,8 @@
       <c r="J126" s="4">
         <v>1</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>15</v>
+      <c r="K126" s="4">
+        <v>0</v>
       </c>
       <c r="L126" s="4">
         <v>7</v>
@@ -5980,8 +5996,8 @@
       <c r="J127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K127" s="4" t="s">
-        <v>15</v>
+      <c r="K127" s="4">
+        <v>0</v>
       </c>
       <c r="L127" s="4">
         <v>5</v>
@@ -6021,8 +6037,8 @@
       <c r="J128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K128" s="4" t="s">
-        <v>15</v>
+      <c r="K128" s="4">
+        <v>0</v>
       </c>
       <c r="L128" s="4">
         <v>2</v>
@@ -6060,8 +6076,8 @@
       <c r="J129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K129" s="4" t="s">
-        <v>15</v>
+      <c r="K129" s="4">
+        <v>0</v>
       </c>
       <c r="L129" s="4">
         <v>4</v>
@@ -6101,8 +6117,8 @@
       <c r="J130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K130" s="4" t="s">
-        <v>15</v>
+      <c r="K130" s="4">
+        <v>0</v>
       </c>
       <c r="L130" s="4">
         <v>4</v>
@@ -6140,8 +6156,8 @@
       <c r="J131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>15</v>
+      <c r="K131" s="4">
+        <v>0</v>
       </c>
       <c r="L131" s="4">
         <v>3</v>
@@ -6181,8 +6197,8 @@
       <c r="J132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K132" s="4" t="s">
-        <v>15</v>
+      <c r="K132" s="4">
+        <v>0</v>
       </c>
       <c r="L132" s="4">
         <v>3</v>
@@ -6220,8 +6236,8 @@
       <c r="J133" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K133" s="4" t="s">
-        <v>15</v>
+      <c r="K133" s="4">
+        <v>0</v>
       </c>
       <c r="L133" s="4">
         <v>1</v>
@@ -6259,21 +6275,21 @@
       <c r="J134" s="5">
         <v>23</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="4">
         <v>0</v>
       </c>
       <c r="L134" s="5">
         <v>76</v>
       </c>
-      <c r="M134" s="5">
-        <v>2.4289999999999998</v>
+      <c r="M134" s="7">
+        <v>2429</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -7276,23 +7292,23 @@
       <c r="C160" s="5">
         <v>237</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.26</v>
-      </c>
-      <c r="E160" s="5">
-        <v>4.7380000000000004</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.401</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.81</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.3530000000000002</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.87</v>
+      <c r="D160" s="7">
+        <v>1260</v>
+      </c>
+      <c r="E160" s="7">
+        <v>4738</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1401</v>
+      </c>
+      <c r="G160" s="7">
+        <v>1810</v>
+      </c>
+      <c r="H160" s="7">
+        <v>3353</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1870</v>
       </c>
       <c r="J160" s="5">
         <v>145</v>
@@ -7303,15 +7319,15 @@
       <c r="L160" s="5">
         <v>103</v>
       </c>
-      <c r="M160" s="5">
-        <v>14.933</v>
+      <c r="M160" s="7">
+        <v>14933</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7368,8 +7384,8 @@
       <c r="G162" s="4">
         <v>371</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.3819999999999999</v>
+      <c r="H162" s="8">
+        <v>1382</v>
       </c>
       <c r="I162" s="4">
         <v>270</v>
@@ -7383,8 +7399,8 @@
       <c r="L162" s="4">
         <v>10</v>
       </c>
-      <c r="M162" s="5">
-        <v>2.0470000000000002</v>
+      <c r="M162" s="7">
+        <v>2047</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7407,8 +7423,8 @@
       <c r="G163" s="4">
         <v>325</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.2869999999999999</v>
+      <c r="H163" s="8">
+        <v>1287</v>
       </c>
       <c r="I163" s="4">
         <v>374</v>
@@ -7422,8 +7438,8 @@
       <c r="L163" s="4">
         <v>12</v>
       </c>
-      <c r="M163" s="5">
-        <v>2.0049999999999999</v>
+      <c r="M163" s="7">
+        <v>2005</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7463,8 +7479,8 @@
       <c r="L164" s="4">
         <v>5</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.3069999999999999</v>
+      <c r="M164" s="7">
+        <v>1307</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7502,8 +7518,8 @@
       <c r="L165" s="4">
         <v>4</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.2869999999999999</v>
+      <c r="M165" s="7">
+        <v>1287</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7543,8 +7559,8 @@
       <c r="L166" s="4">
         <v>1</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.377</v>
+      <c r="M166" s="7">
+        <v>1377</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7582,8 +7598,8 @@
       <c r="L167" s="4">
         <v>10</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.4810000000000001</v>
+      <c r="M167" s="7">
+        <v>1481</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7623,8 +7639,8 @@
       <c r="L168" s="4">
         <v>9</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.7390000000000001</v>
+      <c r="M168" s="7">
+        <v>1739</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7662,8 +7678,8 @@
       <c r="L169" s="4">
         <v>11</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.724</v>
+      <c r="M169" s="7">
+        <v>1724</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7703,8 +7719,8 @@
       <c r="L170" s="4">
         <v>4</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.843</v>
+      <c r="M170" s="7">
+        <v>1843</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7742,8 +7758,8 @@
       <c r="L171" s="4">
         <v>8</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.722</v>
+      <c r="M171" s="7">
+        <v>1722</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7783,8 +7799,8 @@
       <c r="L172" s="4">
         <v>12</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.8029999999999999</v>
+      <c r="M172" s="7">
+        <v>1803</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7822,8 +7838,8 @@
       <c r="L173" s="4">
         <v>11</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.6679999999999999</v>
+      <c r="M173" s="7">
+        <v>1668</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7863,8 +7879,8 @@
       <c r="L174" s="4">
         <v>18</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.569</v>
+      <c r="M174" s="7">
+        <v>1569</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7902,8 +7918,8 @@
       <c r="L175" s="4">
         <v>18</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.722</v>
+      <c r="M175" s="7">
+        <v>1722</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7943,8 +7959,8 @@
       <c r="L176" s="4">
         <v>11</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.57</v>
+      <c r="M176" s="7">
+        <v>1570</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7958,8 +7974,8 @@
       <c r="D177" s="4">
         <v>72</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.284</v>
+      <c r="E177" s="8">
+        <v>1284</v>
       </c>
       <c r="F177" s="4">
         <v>208</v>
@@ -7982,8 +7998,8 @@
       <c r="L177" s="4">
         <v>12</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.8280000000000001</v>
+      <c r="M177" s="7">
+        <v>1828</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8023,8 +8039,8 @@
       <c r="L178" s="4">
         <v>7</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.5880000000000001</v>
+      <c r="M178" s="7">
+        <v>1588</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8038,8 +8054,8 @@
       <c r="D179" s="4">
         <v>189</v>
       </c>
-      <c r="E179" s="4">
-        <v>1.365</v>
+      <c r="E179" s="8">
+        <v>1365</v>
       </c>
       <c r="F179" s="4">
         <v>94</v>
@@ -8062,8 +8078,8 @@
       <c r="L179" s="4">
         <v>6</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.8120000000000001</v>
+      <c r="M179" s="7">
+        <v>1812</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8079,8 +8095,8 @@
       <c r="D180" s="4">
         <v>42</v>
       </c>
-      <c r="E180" s="4">
-        <v>1.054</v>
+      <c r="E180" s="8">
+        <v>1054</v>
       </c>
       <c r="F180" s="4">
         <v>44</v>
@@ -8103,8 +8119,8 @@
       <c r="L180" s="4">
         <v>8</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.46</v>
+      <c r="M180" s="7">
+        <v>1460</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8118,8 +8134,8 @@
       <c r="D181" s="4">
         <v>303</v>
       </c>
-      <c r="E181" s="4">
-        <v>1.042</v>
+      <c r="E181" s="8">
+        <v>1042</v>
       </c>
       <c r="F181" s="4">
         <v>22</v>
@@ -8142,8 +8158,8 @@
       <c r="L181" s="4">
         <v>16</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.512</v>
+      <c r="M181" s="7">
+        <v>1512</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8222,8 +8238,8 @@
       <c r="L183" s="4">
         <v>43</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.2130000000000001</v>
+      <c r="M183" s="7">
+        <v>1213</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8263,8 +8279,8 @@
       <c r="L184" s="4">
         <v>47</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.2430000000000001</v>
+      <c r="M184" s="7">
+        <v>1243</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8302,8 +8318,8 @@
       <c r="L185" s="4">
         <v>26</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.7070000000000001</v>
+      <c r="M185" s="7">
+        <v>1707</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8314,23 +8330,23 @@
       <c r="C186" s="5">
         <v>663</v>
       </c>
-      <c r="D186" s="5">
-        <v>2.1869999999999998</v>
-      </c>
-      <c r="E186" s="5">
-        <v>12.571</v>
-      </c>
-      <c r="F186" s="5">
-        <v>4.46</v>
-      </c>
-      <c r="G186" s="5">
-        <v>4.4080000000000004</v>
-      </c>
-      <c r="H186" s="5">
-        <v>8.2609999999999992</v>
-      </c>
-      <c r="I186" s="5">
-        <v>4.7350000000000003</v>
+      <c r="D186" s="7">
+        <v>2187</v>
+      </c>
+      <c r="E186" s="7">
+        <v>12571</v>
+      </c>
+      <c r="F186" s="7">
+        <v>4460</v>
+      </c>
+      <c r="G186" s="7">
+        <v>4408</v>
+      </c>
+      <c r="H186" s="7">
+        <v>8261</v>
+      </c>
+      <c r="I186" s="7">
+        <v>4735</v>
       </c>
       <c r="J186" s="5">
         <v>526</v>
@@ -8341,15 +8357,15 @@
       <c r="L186" s="5">
         <v>331</v>
       </c>
-      <c r="M186" s="5">
-        <v>38.189</v>
+      <c r="M186" s="7">
+        <v>38189</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9355,17 +9371,17 @@
       <c r="D212" s="5">
         <v>493</v>
       </c>
-      <c r="E212" s="5">
-        <v>3.4529999999999998</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.069</v>
-      </c>
-      <c r="G212" s="5">
-        <v>1.167</v>
-      </c>
-      <c r="H212" s="5">
-        <v>1.698</v>
+      <c r="E212" s="7">
+        <v>3453</v>
+      </c>
+      <c r="F212" s="7">
+        <v>1069</v>
+      </c>
+      <c r="G212" s="7">
+        <v>1167</v>
+      </c>
+      <c r="H212" s="7">
+        <v>1698</v>
       </c>
       <c r="I212" s="5">
         <v>891</v>
@@ -9379,15 +9395,15 @@
       <c r="L212" s="5">
         <v>65</v>
       </c>
-      <c r="M212" s="5">
-        <v>9.0960000000000001</v>
+      <c r="M212" s="7">
+        <v>9096</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9441,14 +9457,14 @@
       <c r="F214" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G214" s="4">
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="H214" s="4">
-        <v>8.4280000000000008</v>
-      </c>
-      <c r="I214" s="4">
-        <v>1.615</v>
+      <c r="G214" s="8">
+        <v>2328</v>
+      </c>
+      <c r="H214" s="8">
+        <v>8428</v>
+      </c>
+      <c r="I214" s="8">
+        <v>1615</v>
       </c>
       <c r="J214" s="4">
         <v>21</v>
@@ -9459,8 +9475,8 @@
       <c r="L214" s="4">
         <v>71</v>
       </c>
-      <c r="M214" s="5">
-        <v>12.486000000000001</v>
+      <c r="M214" s="7">
+        <v>12486</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9480,14 +9496,14 @@
       <c r="F215" s="4">
         <v>2</v>
       </c>
-      <c r="G215" s="4">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="H215" s="4">
-        <v>7.71</v>
-      </c>
-      <c r="I215" s="4">
-        <v>2.4710000000000001</v>
+      <c r="G215" s="8">
+        <v>1963</v>
+      </c>
+      <c r="H215" s="8">
+        <v>7710</v>
+      </c>
+      <c r="I215" s="8">
+        <v>2471</v>
       </c>
       <c r="J215" s="4">
         <v>17</v>
@@ -9498,8 +9514,8 @@
       <c r="L215" s="4">
         <v>38</v>
       </c>
-      <c r="M215" s="5">
-        <v>12.253</v>
+      <c r="M215" s="7">
+        <v>12253</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9521,14 +9537,14 @@
       <c r="F216" s="4">
         <v>24</v>
       </c>
-      <c r="G216" s="4">
-        <v>1.536</v>
-      </c>
-      <c r="H216" s="4">
-        <v>3.673</v>
-      </c>
-      <c r="I216" s="4">
-        <v>3.6429999999999998</v>
+      <c r="G216" s="8">
+        <v>1536</v>
+      </c>
+      <c r="H216" s="8">
+        <v>3673</v>
+      </c>
+      <c r="I216" s="8">
+        <v>3643</v>
       </c>
       <c r="J216" s="4">
         <v>325</v>
@@ -9539,8 +9555,8 @@
       <c r="L216" s="4">
         <v>28</v>
       </c>
-      <c r="M216" s="5">
-        <v>9.2560000000000002</v>
+      <c r="M216" s="7">
+        <v>9256</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9560,14 +9576,14 @@
       <c r="F217" s="4">
         <v>40</v>
       </c>
-      <c r="G217" s="4">
-        <v>1.748</v>
-      </c>
-      <c r="H217" s="4">
-        <v>2.3879999999999999</v>
-      </c>
-      <c r="I217" s="4">
-        <v>4.3289999999999997</v>
+      <c r="G217" s="8">
+        <v>1748</v>
+      </c>
+      <c r="H217" s="8">
+        <v>2388</v>
+      </c>
+      <c r="I217" s="8">
+        <v>4329</v>
       </c>
       <c r="J217" s="4">
         <v>451</v>
@@ -9578,8 +9594,8 @@
       <c r="L217" s="4">
         <v>39</v>
       </c>
-      <c r="M217" s="5">
-        <v>9.0939999999999994</v>
+      <c r="M217" s="7">
+        <v>9094</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9604,11 +9620,11 @@
       <c r="G218" s="4">
         <v>741</v>
       </c>
-      <c r="H218" s="4">
-        <v>3.5019999999999998</v>
-      </c>
-      <c r="I218" s="4">
-        <v>3.1840000000000002</v>
+      <c r="H218" s="8">
+        <v>3502</v>
+      </c>
+      <c r="I218" s="8">
+        <v>3184</v>
       </c>
       <c r="J218" s="4">
         <v>518</v>
@@ -9619,8 +9635,8 @@
       <c r="L218" s="4">
         <v>29</v>
       </c>
-      <c r="M218" s="5">
-        <v>8.9920000000000009</v>
+      <c r="M218" s="7">
+        <v>8992</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9637,17 +9653,17 @@
       <c r="E219" s="4">
         <v>70</v>
       </c>
-      <c r="F219" s="4">
-        <v>1.7649999999999999</v>
+      <c r="F219" s="8">
+        <v>1765</v>
       </c>
       <c r="G219" s="4">
         <v>884</v>
       </c>
-      <c r="H219" s="4">
-        <v>2.468</v>
-      </c>
-      <c r="I219" s="4">
-        <v>3.2679999999999998</v>
+      <c r="H219" s="8">
+        <v>2468</v>
+      </c>
+      <c r="I219" s="8">
+        <v>3268</v>
       </c>
       <c r="J219" s="4">
         <v>506</v>
@@ -9658,8 +9674,8 @@
       <c r="L219" s="4">
         <v>39</v>
       </c>
-      <c r="M219" s="5">
-        <v>9.1639999999999997</v>
+      <c r="M219" s="7">
+        <v>9164</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9678,17 +9694,17 @@
       <c r="E220" s="4">
         <v>203</v>
       </c>
-      <c r="F220" s="4">
-        <v>1.286</v>
+      <c r="F220" s="8">
+        <v>1286</v>
       </c>
       <c r="G220" s="4">
         <v>729</v>
       </c>
-      <c r="H220" s="4">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="I220" s="4">
-        <v>2.871</v>
+      <c r="H220" s="8">
+        <v>4033</v>
+      </c>
+      <c r="I220" s="8">
+        <v>2871</v>
       </c>
       <c r="J220" s="4">
         <v>588</v>
@@ -9699,8 +9715,8 @@
       <c r="L220" s="4">
         <v>14</v>
       </c>
-      <c r="M220" s="5">
-        <v>9.8870000000000005</v>
+      <c r="M220" s="7">
+        <v>9887</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9714,20 +9730,20 @@
       <c r="D221" s="4">
         <v>47</v>
       </c>
-      <c r="E221" s="4">
-        <v>1.532</v>
-      </c>
-      <c r="F221" s="4">
-        <v>1.796</v>
-      </c>
-      <c r="G221" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H221" s="4">
-        <v>2.6890000000000001</v>
-      </c>
-      <c r="I221" s="4">
-        <v>2.3250000000000002</v>
+      <c r="E221" s="8">
+        <v>1532</v>
+      </c>
+      <c r="F221" s="8">
+        <v>1796</v>
+      </c>
+      <c r="G221" s="8">
+        <v>1059</v>
+      </c>
+      <c r="H221" s="8">
+        <v>2689</v>
+      </c>
+      <c r="I221" s="8">
+        <v>2325</v>
       </c>
       <c r="J221" s="4">
         <v>472</v>
@@ -9738,8 +9754,8 @@
       <c r="L221" s="4">
         <v>32</v>
       </c>
-      <c r="M221" s="5">
-        <v>10.067</v>
+      <c r="M221" s="7">
+        <v>10067</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9758,17 +9774,17 @@
       <c r="E222" s="4">
         <v>438</v>
       </c>
-      <c r="F222" s="4">
-        <v>1.325</v>
-      </c>
-      <c r="G222" s="4">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="H222" s="4">
-        <v>3.81</v>
-      </c>
-      <c r="I222" s="4">
-        <v>2.31</v>
+      <c r="F222" s="8">
+        <v>1325</v>
+      </c>
+      <c r="G222" s="8">
+        <v>1432</v>
+      </c>
+      <c r="H222" s="8">
+        <v>3810</v>
+      </c>
+      <c r="I222" s="8">
+        <v>2310</v>
       </c>
       <c r="J222" s="4">
         <v>548</v>
@@ -9779,8 +9795,8 @@
       <c r="L222" s="4">
         <v>19</v>
       </c>
-      <c r="M222" s="5">
-        <v>10.037000000000001</v>
+      <c r="M222" s="7">
+        <v>10037</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9794,20 +9810,20 @@
       <c r="D223" s="4">
         <v>29</v>
       </c>
-      <c r="E223" s="4">
-        <v>2.391</v>
-      </c>
-      <c r="F223" s="4">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="G223" s="4">
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="H223" s="4">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="I223" s="4">
-        <v>1.734</v>
+      <c r="E223" s="8">
+        <v>2391</v>
+      </c>
+      <c r="F223" s="8">
+        <v>1636</v>
+      </c>
+      <c r="G223" s="8">
+        <v>1683</v>
+      </c>
+      <c r="H223" s="8">
+        <v>2354</v>
+      </c>
+      <c r="I223" s="8">
+        <v>1734</v>
       </c>
       <c r="J223" s="4">
         <v>386</v>
@@ -9818,8 +9834,8 @@
       <c r="L223" s="4">
         <v>52</v>
       </c>
-      <c r="M223" s="5">
-        <v>10.411</v>
+      <c r="M223" s="7">
+        <v>10411</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9838,17 +9854,17 @@
       <c r="E224" s="4">
         <v>612</v>
       </c>
-      <c r="F224" s="4">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="G224" s="4">
-        <v>1.407</v>
-      </c>
-      <c r="H224" s="4">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="I224" s="4">
-        <v>2.0129999999999999</v>
+      <c r="F224" s="8">
+        <v>1563</v>
+      </c>
+      <c r="G224" s="8">
+        <v>1407</v>
+      </c>
+      <c r="H224" s="8">
+        <v>3224</v>
+      </c>
+      <c r="I224" s="8">
+        <v>2013</v>
       </c>
       <c r="J224" s="4">
         <v>338</v>
@@ -9859,8 +9875,8 @@
       <c r="L224" s="4">
         <v>32</v>
       </c>
-      <c r="M224" s="5">
-        <v>9.3360000000000003</v>
+      <c r="M224" s="7">
+        <v>9336</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9874,20 +9890,20 @@
       <c r="D225" s="4">
         <v>32</v>
       </c>
-      <c r="E225" s="4">
-        <v>2.8780000000000001</v>
-      </c>
-      <c r="F225" s="4">
-        <v>1.988</v>
-      </c>
-      <c r="G225" s="4">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="H225" s="4">
-        <v>1.8480000000000001</v>
-      </c>
-      <c r="I225" s="4">
-        <v>1.125</v>
+      <c r="E225" s="8">
+        <v>2878</v>
+      </c>
+      <c r="F225" s="8">
+        <v>1988</v>
+      </c>
+      <c r="G225" s="8">
+        <v>1547</v>
+      </c>
+      <c r="H225" s="8">
+        <v>1848</v>
+      </c>
+      <c r="I225" s="8">
+        <v>1125</v>
       </c>
       <c r="J225" s="4">
         <v>176</v>
@@ -9898,8 +9914,8 @@
       <c r="L225" s="4">
         <v>64</v>
       </c>
-      <c r="M225" s="5">
-        <v>9.7550000000000008</v>
+      <c r="M225" s="7">
+        <v>9755</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9918,17 +9934,17 @@
       <c r="E226" s="4">
         <v>834</v>
       </c>
-      <c r="F226" s="4">
-        <v>1.752</v>
-      </c>
-      <c r="G226" s="4">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="H226" s="4">
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="I226" s="4">
-        <v>1.4179999999999999</v>
+      <c r="F226" s="8">
+        <v>1752</v>
+      </c>
+      <c r="G226" s="8">
+        <v>1503</v>
+      </c>
+      <c r="H226" s="8">
+        <v>2352</v>
+      </c>
+      <c r="I226" s="8">
+        <v>1418</v>
       </c>
       <c r="J226" s="4">
         <v>196</v>
@@ -9939,8 +9955,8 @@
       <c r="L226" s="4">
         <v>50</v>
       </c>
-      <c r="M226" s="5">
-        <v>8.2319999999999993</v>
+      <c r="M226" s="7">
+        <v>8232</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9954,17 +9970,17 @@
       <c r="D227" s="4">
         <v>65</v>
       </c>
-      <c r="E227" s="4">
-        <v>3.621</v>
-      </c>
-      <c r="F227" s="4">
-        <v>1.472</v>
-      </c>
-      <c r="G227" s="4">
-        <v>1.288</v>
-      </c>
-      <c r="H227" s="4">
-        <v>1.262</v>
+      <c r="E227" s="8">
+        <v>3621</v>
+      </c>
+      <c r="F227" s="8">
+        <v>1472</v>
+      </c>
+      <c r="G227" s="8">
+        <v>1288</v>
+      </c>
+      <c r="H227" s="8">
+        <v>1262</v>
       </c>
       <c r="I227" s="4">
         <v>597</v>
@@ -9978,8 +9994,8 @@
       <c r="L227" s="4">
         <v>58</v>
       </c>
-      <c r="M227" s="5">
-        <v>8.4969999999999999</v>
+      <c r="M227" s="7">
+        <v>8497</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -9995,20 +10011,20 @@
       <c r="D228" s="4">
         <v>19</v>
       </c>
-      <c r="E228" s="4">
-        <v>1.329</v>
-      </c>
-      <c r="F228" s="4">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="G228" s="4">
-        <v>1.276</v>
-      </c>
-      <c r="H228" s="4">
-        <v>1.8420000000000001</v>
-      </c>
-      <c r="I228" s="4">
-        <v>1.0389999999999999</v>
+      <c r="E228" s="8">
+        <v>1329</v>
+      </c>
+      <c r="F228" s="8">
+        <v>1435</v>
+      </c>
+      <c r="G228" s="8">
+        <v>1276</v>
+      </c>
+      <c r="H228" s="8">
+        <v>1842</v>
+      </c>
+      <c r="I228" s="8">
+        <v>1039</v>
       </c>
       <c r="J228" s="4">
         <v>123</v>
@@ -10019,8 +10035,8 @@
       <c r="L228" s="4">
         <v>50</v>
       </c>
-      <c r="M228" s="5">
-        <v>7.1840000000000002</v>
+      <c r="M228" s="7">
+        <v>7184</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10034,8 +10050,8 @@
       <c r="D229" s="4">
         <v>153</v>
       </c>
-      <c r="E229" s="4">
-        <v>4.2480000000000002</v>
+      <c r="E229" s="8">
+        <v>4248</v>
       </c>
       <c r="F229" s="4">
         <v>790</v>
@@ -10058,8 +10074,8 @@
       <c r="L229" s="4">
         <v>52</v>
       </c>
-      <c r="M229" s="5">
-        <v>7.3470000000000004</v>
+      <c r="M229" s="7">
+        <v>7347</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10075,8 +10091,8 @@
       <c r="D230" s="4">
         <v>38</v>
       </c>
-      <c r="E230" s="4">
-        <v>2.3319999999999999</v>
+      <c r="E230" s="8">
+        <v>2332</v>
       </c>
       <c r="F230" s="4">
         <v>760</v>
@@ -10084,8 +10100,8 @@
       <c r="G230" s="4">
         <v>916</v>
       </c>
-      <c r="H230" s="4">
-        <v>1.5369999999999999</v>
+      <c r="H230" s="8">
+        <v>1537</v>
       </c>
       <c r="I230" s="4">
         <v>700</v>
@@ -10099,8 +10115,8 @@
       <c r="L230" s="4">
         <v>23</v>
       </c>
-      <c r="M230" s="5">
-        <v>6.407</v>
+      <c r="M230" s="7">
+        <v>6407</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10114,8 +10130,8 @@
       <c r="D231" s="4">
         <v>344</v>
       </c>
-      <c r="E231" s="4">
-        <v>4.6500000000000004</v>
+      <c r="E231" s="8">
+        <v>4650</v>
       </c>
       <c r="F231" s="4">
         <v>335</v>
@@ -10138,8 +10154,8 @@
       <c r="L231" s="4">
         <v>33</v>
       </c>
-      <c r="M231" s="5">
-        <v>6.8680000000000003</v>
+      <c r="M231" s="7">
+        <v>6868</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10155,8 +10171,8 @@
       <c r="D232" s="4">
         <v>59</v>
       </c>
-      <c r="E232" s="4">
-        <v>2.3860000000000001</v>
+      <c r="E232" s="8">
+        <v>2386</v>
       </c>
       <c r="F232" s="4">
         <v>276</v>
@@ -10179,8 +10195,8 @@
       <c r="L232" s="4">
         <v>16</v>
       </c>
-      <c r="M232" s="5">
-        <v>4.8559999999999999</v>
+      <c r="M232" s="7">
+        <v>4856</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10194,8 +10210,8 @@
       <c r="D233" s="4">
         <v>515</v>
       </c>
-      <c r="E233" s="4">
-        <v>3.6349999999999998</v>
+      <c r="E233" s="8">
+        <v>3635</v>
       </c>
       <c r="F233" s="4">
         <v>112</v>
@@ -10218,8 +10234,8 @@
       <c r="L233" s="4">
         <v>46</v>
       </c>
-      <c r="M233" s="5">
-        <v>5.3310000000000004</v>
+      <c r="M233" s="7">
+        <v>5331</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10235,8 +10251,8 @@
       <c r="D234" s="4">
         <v>123</v>
       </c>
-      <c r="E234" s="4">
-        <v>2.2069999999999999</v>
+      <c r="E234" s="8">
+        <v>2207</v>
       </c>
       <c r="F234" s="4">
         <v>86</v>
@@ -10259,8 +10275,8 @@
       <c r="L234" s="4">
         <v>36</v>
       </c>
-      <c r="M234" s="5">
-        <v>3.6629999999999998</v>
+      <c r="M234" s="7">
+        <v>3663</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10274,8 +10290,8 @@
       <c r="D235" s="4">
         <v>783</v>
       </c>
-      <c r="E235" s="4">
-        <v>2.5230000000000001</v>
+      <c r="E235" s="8">
+        <v>2523</v>
       </c>
       <c r="F235" s="4">
         <v>19</v>
@@ -10298,8 +10314,8 @@
       <c r="L235" s="4">
         <v>67</v>
       </c>
-      <c r="M235" s="5">
-        <v>4.22</v>
+      <c r="M235" s="7">
+        <v>4220</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10315,8 +10331,8 @@
       <c r="D236" s="4">
         <v>434</v>
       </c>
-      <c r="E236" s="4">
-        <v>2.3679999999999999</v>
+      <c r="E236" s="8">
+        <v>2368</v>
       </c>
       <c r="F236" s="4">
         <v>38</v>
@@ -10339,8 +10355,8 @@
       <c r="L236" s="4">
         <v>73</v>
       </c>
-      <c r="M236" s="5">
-        <v>3.8450000000000002</v>
+      <c r="M236" s="7">
+        <v>3845</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10348,14 +10364,14 @@
       <c r="B237" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="4">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="D237" s="4">
-        <v>1.522</v>
-      </c>
-      <c r="E237" s="4">
-        <v>2.6440000000000001</v>
+      <c r="C237" s="8">
+        <v>1068</v>
+      </c>
+      <c r="D237" s="8">
+        <v>1522</v>
+      </c>
+      <c r="E237" s="8">
+        <v>2644</v>
       </c>
       <c r="F237" s="4">
         <v>9</v>
@@ -10378,8 +10394,8 @@
       <c r="L237" s="4">
         <v>53</v>
       </c>
-      <c r="M237" s="5">
-        <v>5.6310000000000002</v>
+      <c r="M237" s="7">
+        <v>5631</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10387,45 +10403,45 @@
         <v>12</v>
       </c>
       <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="D238" s="5">
-        <v>4.4139999999999997</v>
-      </c>
-      <c r="E238" s="5">
-        <v>41.015000000000001</v>
-      </c>
-      <c r="F238" s="5">
-        <v>19.451000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>24.972000000000001</v>
-      </c>
-      <c r="H238" s="5">
-        <v>56.789000000000001</v>
-      </c>
-      <c r="I238" s="5">
-        <v>36.874000000000002</v>
-      </c>
-      <c r="J238" s="5">
-        <v>4.9420000000000002</v>
-      </c>
-      <c r="K238" s="5">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="L238" s="5">
-        <v>1.014</v>
-      </c>
-      <c r="M238" s="5">
-        <v>192.81899999999999</v>
+      <c r="C238" s="7">
+        <v>2256</v>
+      </c>
+      <c r="D238" s="7">
+        <v>4414</v>
+      </c>
+      <c r="E238" s="7">
+        <v>41015</v>
+      </c>
+      <c r="F238" s="7">
+        <v>19451</v>
+      </c>
+      <c r="G238" s="7">
+        <v>24972</v>
+      </c>
+      <c r="H238" s="7">
+        <v>56789</v>
+      </c>
+      <c r="I238" s="7">
+        <v>36874</v>
+      </c>
+      <c r="J238" s="7">
+        <v>4942</v>
+      </c>
+      <c r="K238" s="7">
+        <v>1092</v>
+      </c>
+      <c r="L238" s="7">
+        <v>1014</v>
+      </c>
+      <c r="M238" s="7">
+        <v>192819</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -11431,8 +11447,8 @@
       <c r="D264" s="5">
         <v>436</v>
       </c>
-      <c r="E264" s="5">
-        <v>1.377</v>
+      <c r="E264" s="7">
+        <v>1377</v>
       </c>
       <c r="F264" s="5">
         <v>470</v>
@@ -11455,15 +11471,15 @@
       <c r="L264" s="5">
         <v>16</v>
       </c>
-      <c r="M264" s="5">
-        <v>4.0119999999999996</v>
+      <c r="M264" s="7">
+        <v>4012</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11520,8 +11536,8 @@
       <c r="G266" s="4">
         <v>414</v>
       </c>
-      <c r="H266" s="4">
-        <v>1.704</v>
+      <c r="H266" s="8">
+        <v>1704</v>
       </c>
       <c r="I266" s="4">
         <v>352</v>
@@ -11535,8 +11551,8 @@
       <c r="L266" s="4">
         <v>18</v>
       </c>
-      <c r="M266" s="5">
-        <v>2.4990000000000001</v>
+      <c r="M266" s="7">
+        <v>2499</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11559,8 +11575,8 @@
       <c r="G267" s="4">
         <v>317</v>
       </c>
-      <c r="H267" s="4">
-        <v>1.54</v>
+      <c r="H267" s="8">
+        <v>1540</v>
       </c>
       <c r="I267" s="4">
         <v>547</v>
@@ -11574,8 +11590,8 @@
       <c r="L267" s="4">
         <v>5</v>
       </c>
-      <c r="M267" s="5">
-        <v>2.431</v>
+      <c r="M267" s="7">
+        <v>2431</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11615,8 +11631,8 @@
       <c r="L268" s="4">
         <v>6</v>
       </c>
-      <c r="M268" s="5">
-        <v>1.5089999999999999</v>
+      <c r="M268" s="7">
+        <v>1509</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11654,8 +11670,8 @@
       <c r="L269" s="4">
         <v>5</v>
       </c>
-      <c r="M269" s="5">
-        <v>1.5349999999999999</v>
+      <c r="M269" s="7">
+        <v>1535</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11695,8 +11711,8 @@
       <c r="L270" s="4">
         <v>3</v>
       </c>
-      <c r="M270" s="5">
-        <v>1.536</v>
+      <c r="M270" s="7">
+        <v>1536</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11734,8 +11750,8 @@
       <c r="L271" s="4">
         <v>3</v>
       </c>
-      <c r="M271" s="5">
-        <v>1.4850000000000001</v>
+      <c r="M271" s="7">
+        <v>1485</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11775,8 +11791,8 @@
       <c r="L272" s="4">
         <v>2</v>
       </c>
-      <c r="M272" s="5">
-        <v>1.8</v>
+      <c r="M272" s="7">
+        <v>1800</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11814,8 +11830,8 @@
       <c r="L273" s="4">
         <v>3</v>
       </c>
-      <c r="M273" s="5">
-        <v>1.708</v>
+      <c r="M273" s="7">
+        <v>1708</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11855,8 +11871,8 @@
       <c r="L274" s="4">
         <v>3</v>
       </c>
-      <c r="M274" s="5">
-        <v>1.964</v>
+      <c r="M274" s="7">
+        <v>1964</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11894,8 +11910,8 @@
       <c r="L275" s="4">
         <v>5</v>
       </c>
-      <c r="M275" s="5">
-        <v>1.944</v>
+      <c r="M275" s="7">
+        <v>1944</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11935,8 +11951,8 @@
       <c r="L276" s="4">
         <v>5</v>
       </c>
-      <c r="M276" s="5">
-        <v>2.028</v>
+      <c r="M276" s="7">
+        <v>2028</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11974,8 +11990,8 @@
       <c r="L277" s="4">
         <v>5</v>
       </c>
-      <c r="M277" s="5">
-        <v>2.0979999999999999</v>
+      <c r="M277" s="7">
+        <v>2098</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12015,8 +12031,8 @@
       <c r="L278" s="4">
         <v>5</v>
       </c>
-      <c r="M278" s="5">
-        <v>2.1230000000000002</v>
+      <c r="M278" s="7">
+        <v>2123</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12030,8 +12046,8 @@
       <c r="D279" s="4">
         <v>35</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.2410000000000001</v>
+      <c r="E279" s="8">
+        <v>1241</v>
       </c>
       <c r="F279" s="4">
         <v>378</v>
@@ -12054,8 +12070,8 @@
       <c r="L279" s="4">
         <v>11</v>
       </c>
-      <c r="M279" s="5">
-        <v>2.2909999999999999</v>
+      <c r="M279" s="7">
+        <v>2291</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12095,8 +12111,8 @@
       <c r="L280" s="4">
         <v>14</v>
       </c>
-      <c r="M280" s="5">
-        <v>2.226</v>
+      <c r="M280" s="7">
+        <v>2226</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12110,8 +12126,8 @@
       <c r="D281" s="4">
         <v>102</v>
       </c>
-      <c r="E281" s="4">
-        <v>1.6120000000000001</v>
+      <c r="E281" s="8">
+        <v>1612</v>
       </c>
       <c r="F281" s="4">
         <v>224</v>
@@ -12134,8 +12150,8 @@
       <c r="L281" s="4">
         <v>7</v>
       </c>
-      <c r="M281" s="5">
-        <v>2.411</v>
+      <c r="M281" s="7">
+        <v>2411</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12151,8 +12167,8 @@
       <c r="D282" s="4">
         <v>28</v>
       </c>
-      <c r="E282" s="4">
-        <v>1.2250000000000001</v>
+      <c r="E282" s="8">
+        <v>1225</v>
       </c>
       <c r="F282" s="4">
         <v>176</v>
@@ -12175,8 +12191,8 @@
       <c r="L282" s="4">
         <v>7</v>
       </c>
-      <c r="M282" s="5">
-        <v>2.3610000000000002</v>
+      <c r="M282" s="7">
+        <v>2361</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12190,8 +12206,8 @@
       <c r="D283" s="4">
         <v>224</v>
       </c>
-      <c r="E283" s="4">
-        <v>1.9139999999999999</v>
+      <c r="E283" s="8">
+        <v>1914</v>
       </c>
       <c r="F283" s="4">
         <v>98</v>
@@ -12214,8 +12230,8 @@
       <c r="L283" s="4">
         <v>3</v>
       </c>
-      <c r="M283" s="5">
-        <v>2.673</v>
+      <c r="M283" s="7">
+        <v>2673</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12231,8 +12247,8 @@
       <c r="D284" s="4">
         <v>60</v>
       </c>
-      <c r="E284" s="4">
-        <v>1.256</v>
+      <c r="E284" s="8">
+        <v>1256</v>
       </c>
       <c r="F284" s="4">
         <v>69</v>
@@ -12255,8 +12271,8 @@
       <c r="L284" s="4">
         <v>2</v>
       </c>
-      <c r="M284" s="5">
-        <v>2.1360000000000001</v>
+      <c r="M284" s="7">
+        <v>2136</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12270,8 +12286,8 @@
       <c r="D285" s="4">
         <v>435</v>
       </c>
-      <c r="E285" s="4">
-        <v>1.5820000000000001</v>
+      <c r="E285" s="8">
+        <v>1582</v>
       </c>
       <c r="F285" s="4">
         <v>26</v>
@@ -12294,8 +12310,8 @@
       <c r="L285" s="4">
         <v>8</v>
       </c>
-      <c r="M285" s="5">
-        <v>2.4209999999999998</v>
+      <c r="M285" s="7">
+        <v>2421</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12311,8 +12327,8 @@
       <c r="D286" s="4">
         <v>143</v>
       </c>
-      <c r="E286" s="4">
-        <v>1.05</v>
+      <c r="E286" s="8">
+        <v>1050</v>
       </c>
       <c r="F286" s="4">
         <v>22</v>
@@ -12335,8 +12351,8 @@
       <c r="L286" s="4">
         <v>5</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.58</v>
+      <c r="M286" s="7">
+        <v>1580</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12374,8 +12390,8 @@
       <c r="L287" s="4">
         <v>13</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.8819999999999999</v>
+      <c r="M287" s="7">
+        <v>1882</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12391,8 +12407,8 @@
       <c r="D288" s="4">
         <v>500</v>
       </c>
-      <c r="E288" s="4">
-        <v>1.2210000000000001</v>
+      <c r="E288" s="8">
+        <v>1221</v>
       </c>
       <c r="F288" s="4">
         <v>10</v>
@@ -12415,8 +12431,8 @@
       <c r="L288" s="4">
         <v>12</v>
       </c>
-      <c r="M288" s="5">
-        <v>2.0590000000000002</v>
+      <c r="M288" s="7">
+        <v>2059</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12427,8 +12443,8 @@
       <c r="C289" s="4">
         <v>670</v>
       </c>
-      <c r="D289" s="4">
-        <v>1.256</v>
+      <c r="D289" s="8">
+        <v>1256</v>
       </c>
       <c r="E289" s="4">
         <v>990</v>
@@ -12454,8 +12470,8 @@
       <c r="L289" s="4">
         <v>10</v>
       </c>
-      <c r="M289" s="5">
-        <v>2.968</v>
+      <c r="M289" s="7">
+        <v>2968</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12463,26 +12479,26 @@
         <v>12</v>
       </c>
       <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="D290" s="5">
-        <v>3.4620000000000002</v>
-      </c>
-      <c r="E290" s="5">
-        <v>16.777000000000001</v>
-      </c>
-      <c r="F290" s="5">
-        <v>4.1349999999999998</v>
-      </c>
-      <c r="G290" s="5">
-        <v>5.7480000000000002</v>
-      </c>
-      <c r="H290" s="5">
-        <v>10.603999999999999</v>
-      </c>
-      <c r="I290" s="5">
-        <v>6.4950000000000001</v>
+      <c r="C290" s="7">
+        <v>1533</v>
+      </c>
+      <c r="D290" s="7">
+        <v>3462</v>
+      </c>
+      <c r="E290" s="7">
+        <v>16777</v>
+      </c>
+      <c r="F290" s="7">
+        <v>4135</v>
+      </c>
+      <c r="G290" s="7">
+        <v>5748</v>
+      </c>
+      <c r="H290" s="7">
+        <v>10604</v>
+      </c>
+      <c r="I290" s="7">
+        <v>6495</v>
       </c>
       <c r="J290" s="5">
         <v>671</v>
@@ -12493,15 +12509,15 @@
       <c r="L290" s="5">
         <v>160</v>
       </c>
-      <c r="M290" s="5">
-        <v>49.667999999999999</v>
+      <c r="M290" s="7">
+        <v>49668</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -13507,8 +13523,8 @@
       <c r="D316" s="5">
         <v>506</v>
       </c>
-      <c r="E316" s="5">
-        <v>1.7250000000000001</v>
+      <c r="E316" s="7">
+        <v>1725</v>
       </c>
       <c r="F316" s="5">
         <v>423</v>
@@ -13531,15 +13547,15 @@
       <c r="L316" s="5">
         <v>36</v>
       </c>
-      <c r="M316" s="5">
-        <v>4.7329999999999997</v>
+      <c r="M316" s="7">
+        <v>4733</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13596,8 +13612,8 @@
       <c r="G318" s="4">
         <v>704</v>
       </c>
-      <c r="H318" s="4">
-        <v>3.0070000000000001</v>
+      <c r="H318" s="8">
+        <v>3007</v>
       </c>
       <c r="I318" s="4">
         <v>588</v>
@@ -13611,8 +13627,8 @@
       <c r="L318" s="4">
         <v>18</v>
       </c>
-      <c r="M318" s="5">
-        <v>4.3330000000000002</v>
+      <c r="M318" s="7">
+        <v>4333</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13635,8 +13651,8 @@
       <c r="G319" s="4">
         <v>604</v>
       </c>
-      <c r="H319" s="4">
-        <v>2.7789999999999999</v>
+      <c r="H319" s="8">
+        <v>2779</v>
       </c>
       <c r="I319" s="4">
         <v>843</v>
@@ -13650,8 +13666,8 @@
       <c r="L319" s="4">
         <v>5</v>
       </c>
-      <c r="M319" s="5">
-        <v>4.25</v>
+      <c r="M319" s="7">
+        <v>4250</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13676,11 +13692,11 @@
       <c r="G320" s="4">
         <v>410</v>
       </c>
-      <c r="H320" s="4">
-        <v>1.355</v>
-      </c>
-      <c r="I320" s="4">
-        <v>1.089</v>
+      <c r="H320" s="8">
+        <v>1355</v>
+      </c>
+      <c r="I320" s="8">
+        <v>1089</v>
       </c>
       <c r="J320" s="4">
         <v>84</v>
@@ -13691,8 +13707,8 @@
       <c r="L320" s="4">
         <v>8</v>
       </c>
-      <c r="M320" s="5">
-        <v>2.964</v>
+      <c r="M320" s="7">
+        <v>2964</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13718,8 +13734,8 @@
       <c r="H321" s="4">
         <v>972</v>
       </c>
-      <c r="I321" s="4">
-        <v>1.236</v>
+      <c r="I321" s="8">
+        <v>1236</v>
       </c>
       <c r="J321" s="4">
         <v>97</v>
@@ -13730,8 +13746,8 @@
       <c r="L321" s="4">
         <v>13</v>
       </c>
-      <c r="M321" s="5">
-        <v>2.97</v>
+      <c r="M321" s="7">
+        <v>2970</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13756,11 +13772,11 @@
       <c r="G322" s="4">
         <v>190</v>
       </c>
-      <c r="H322" s="4">
-        <v>1.458</v>
-      </c>
-      <c r="I322" s="4">
-        <v>1.0920000000000001</v>
+      <c r="H322" s="8">
+        <v>1458</v>
+      </c>
+      <c r="I322" s="8">
+        <v>1092</v>
       </c>
       <c r="J322" s="4">
         <v>121</v>
@@ -13771,8 +13787,8 @@
       <c r="L322" s="4">
         <v>5</v>
       </c>
-      <c r="M322" s="5">
-        <v>3.13</v>
+      <c r="M322" s="7">
+        <v>3130</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13798,8 +13814,8 @@
       <c r="H323" s="4">
         <v>956</v>
       </c>
-      <c r="I323" s="4">
-        <v>1.0660000000000001</v>
+      <c r="I323" s="8">
+        <v>1066</v>
       </c>
       <c r="J323" s="4">
         <v>123</v>
@@ -13810,8 +13826,8 @@
       <c r="L323" s="4">
         <v>9</v>
       </c>
-      <c r="M323" s="5">
-        <v>3.347</v>
+      <c r="M323" s="7">
+        <v>3347</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13836,11 +13852,11 @@
       <c r="G324" s="4">
         <v>267</v>
       </c>
-      <c r="H324" s="4">
-        <v>1.867</v>
-      </c>
-      <c r="I324" s="4">
-        <v>1.03</v>
+      <c r="H324" s="8">
+        <v>1867</v>
+      </c>
+      <c r="I324" s="8">
+        <v>1030</v>
       </c>
       <c r="J324" s="4">
         <v>176</v>
@@ -13851,8 +13867,8 @@
       <c r="L324" s="4">
         <v>6</v>
       </c>
-      <c r="M324" s="5">
-        <v>3.9169999999999998</v>
+      <c r="M324" s="7">
+        <v>3917</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13875,8 +13891,8 @@
       <c r="G325" s="4">
         <v>484</v>
       </c>
-      <c r="H325" s="4">
-        <v>1.0149999999999999</v>
+      <c r="H325" s="8">
+        <v>1015</v>
       </c>
       <c r="I325" s="4">
         <v>682</v>
@@ -13890,8 +13906,8 @@
       <c r="L325" s="4">
         <v>6</v>
       </c>
-      <c r="M325" s="5">
-        <v>3.94</v>
+      <c r="M325" s="7">
+        <v>3940</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13916,8 +13932,8 @@
       <c r="G326" s="4">
         <v>671</v>
       </c>
-      <c r="H326" s="4">
-        <v>1.8180000000000001</v>
+      <c r="H326" s="8">
+        <v>1818</v>
       </c>
       <c r="I326" s="4">
         <v>786</v>
@@ -13931,8 +13947,8 @@
       <c r="L326" s="4">
         <v>8</v>
       </c>
-      <c r="M326" s="5">
-        <v>4.1429999999999998</v>
+      <c r="M326" s="7">
+        <v>4143</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13946,8 +13962,8 @@
       <c r="D327" s="4">
         <v>14</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.081</v>
+      <c r="E327" s="8">
+        <v>1081</v>
       </c>
       <c r="F327" s="4">
         <v>792</v>
@@ -13970,8 +13986,8 @@
       <c r="L327" s="4">
         <v>13</v>
       </c>
-      <c r="M327" s="5">
-        <v>4.1420000000000003</v>
+      <c r="M327" s="7">
+        <v>4142</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -13996,8 +14012,8 @@
       <c r="G328" s="4">
         <v>531</v>
       </c>
-      <c r="H328" s="4">
-        <v>1.369</v>
+      <c r="H328" s="8">
+        <v>1369</v>
       </c>
       <c r="I328" s="4">
         <v>609</v>
@@ -14011,8 +14027,8 @@
       <c r="L328" s="4">
         <v>7</v>
       </c>
-      <c r="M328" s="5">
-        <v>3.5859999999999999</v>
+      <c r="M328" s="7">
+        <v>3586</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14026,8 +14042,8 @@
       <c r="D329" s="4">
         <v>29</v>
       </c>
-      <c r="E329" s="4">
-        <v>1.365</v>
+      <c r="E329" s="8">
+        <v>1365</v>
       </c>
       <c r="F329" s="4">
         <v>822</v>
@@ -14050,8 +14066,8 @@
       <c r="L329" s="4">
         <v>10</v>
       </c>
-      <c r="M329" s="5">
-        <v>3.597</v>
+      <c r="M329" s="7">
+        <v>3597</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14091,8 +14107,8 @@
       <c r="L330" s="4">
         <v>12</v>
       </c>
-      <c r="M330" s="5">
-        <v>3.101</v>
+      <c r="M330" s="7">
+        <v>3101</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14106,8 +14122,8 @@
       <c r="D331" s="4">
         <v>32</v>
       </c>
-      <c r="E331" s="4">
-        <v>1.8680000000000001</v>
+      <c r="E331" s="8">
+        <v>1868</v>
       </c>
       <c r="F331" s="4">
         <v>607</v>
@@ -14130,8 +14146,8 @@
       <c r="L331" s="4">
         <v>19</v>
       </c>
-      <c r="M331" s="5">
-        <v>3.4159999999999999</v>
+      <c r="M331" s="7">
+        <v>3416</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14171,8 +14187,8 @@
       <c r="L332" s="4">
         <v>15</v>
       </c>
-      <c r="M332" s="5">
-        <v>3.0459999999999998</v>
+      <c r="M332" s="7">
+        <v>3046</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14186,8 +14202,8 @@
       <c r="D333" s="4">
         <v>84</v>
       </c>
-      <c r="E333" s="4">
-        <v>2.4590000000000001</v>
+      <c r="E333" s="8">
+        <v>2459</v>
       </c>
       <c r="F333" s="4">
         <v>290</v>
@@ -14210,8 +14226,8 @@
       <c r="L333" s="4">
         <v>16</v>
       </c>
-      <c r="M333" s="5">
-        <v>3.516</v>
+      <c r="M333" s="7">
+        <v>3516</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14227,8 +14243,8 @@
       <c r="D334" s="4">
         <v>33</v>
       </c>
-      <c r="E334" s="4">
-        <v>1.464</v>
+      <c r="E334" s="8">
+        <v>1464</v>
       </c>
       <c r="F334" s="4">
         <v>369</v>
@@ -14251,8 +14267,8 @@
       <c r="L334" s="4">
         <v>8</v>
       </c>
-      <c r="M334" s="5">
-        <v>3.391</v>
+      <c r="M334" s="7">
+        <v>3391</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14266,8 +14282,8 @@
       <c r="D335" s="4">
         <v>238</v>
       </c>
-      <c r="E335" s="4">
-        <v>2.6760000000000002</v>
+      <c r="E335" s="8">
+        <v>2676</v>
       </c>
       <c r="F335" s="4">
         <v>110</v>
@@ -14290,8 +14306,8 @@
       <c r="L335" s="4">
         <v>5</v>
       </c>
-      <c r="M335" s="5">
-        <v>3.48</v>
+      <c r="M335" s="7">
+        <v>3480</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14307,8 +14323,8 @@
       <c r="D336" s="4">
         <v>52</v>
       </c>
-      <c r="E336" s="4">
-        <v>1.5669999999999999</v>
+      <c r="E336" s="8">
+        <v>1567</v>
       </c>
       <c r="F336" s="4">
         <v>129</v>
@@ -14331,8 +14347,8 @@
       <c r="L336" s="4">
         <v>3</v>
       </c>
-      <c r="M336" s="5">
-        <v>2.6640000000000001</v>
+      <c r="M336" s="7">
+        <v>2664</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14346,8 +14362,8 @@
       <c r="D337" s="4">
         <v>500</v>
       </c>
-      <c r="E337" s="4">
-        <v>2.0339999999999998</v>
+      <c r="E337" s="8">
+        <v>2034</v>
       </c>
       <c r="F337" s="4">
         <v>30</v>
@@ -14370,8 +14386,8 @@
       <c r="L337" s="4">
         <v>15</v>
       </c>
-      <c r="M337" s="5">
-        <v>2.867</v>
+      <c r="M337" s="7">
+        <v>2867</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14387,8 +14403,8 @@
       <c r="D338" s="4">
         <v>136</v>
       </c>
-      <c r="E338" s="4">
-        <v>1.2330000000000001</v>
+      <c r="E338" s="8">
+        <v>1233</v>
       </c>
       <c r="F338" s="4">
         <v>41</v>
@@ -14411,8 +14427,8 @@
       <c r="L338" s="4">
         <v>21</v>
       </c>
-      <c r="M338" s="5">
-        <v>1.8660000000000001</v>
+      <c r="M338" s="7">
+        <v>1866</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14426,8 +14442,8 @@
       <c r="D339" s="4">
         <v>652</v>
       </c>
-      <c r="E339" s="4">
-        <v>1.121</v>
+      <c r="E339" s="8">
+        <v>1121</v>
       </c>
       <c r="F339" s="4">
         <v>8</v>
@@ -14450,8 +14466,8 @@
       <c r="L339" s="4">
         <v>24</v>
       </c>
-      <c r="M339" s="5">
-        <v>2.0169999999999999</v>
+      <c r="M339" s="7">
+        <v>2017</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14467,8 +14483,8 @@
       <c r="D340" s="4">
         <v>515</v>
       </c>
-      <c r="E340" s="4">
-        <v>1.1870000000000001</v>
+      <c r="E340" s="8">
+        <v>1187</v>
       </c>
       <c r="F340" s="4">
         <v>18</v>
@@ -14491,8 +14507,8 @@
       <c r="L340" s="4">
         <v>21</v>
       </c>
-      <c r="M340" s="5">
-        <v>1.994</v>
+      <c r="M340" s="7">
+        <v>1994</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14503,8 +14519,8 @@
       <c r="C341" s="4">
         <v>483</v>
       </c>
-      <c r="D341" s="4">
-        <v>1.2949999999999999</v>
+      <c r="D341" s="8">
+        <v>1295</v>
       </c>
       <c r="E341" s="4">
         <v>923</v>
@@ -14530,8 +14546,8 @@
       <c r="L341" s="4">
         <v>16</v>
       </c>
-      <c r="M341" s="5">
-        <v>2.7639999999999998</v>
+      <c r="M341" s="7">
+        <v>2764</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -14542,26 +14558,26 @@
       <c r="C342" s="5">
         <v>904</v>
       </c>
-      <c r="D342" s="5">
-        <v>3.6949999999999998</v>
-      </c>
-      <c r="E342" s="5">
-        <v>20.847999999999999</v>
-      </c>
-      <c r="F342" s="5">
-        <v>8.7059999999999995</v>
-      </c>
-      <c r="G342" s="5">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="H342" s="5">
-        <v>22.097000000000001</v>
-      </c>
-      <c r="I342" s="5">
-        <v>11.375999999999999</v>
-      </c>
-      <c r="J342" s="5">
-        <v>1.157</v>
+      <c r="D342" s="7">
+        <v>3695</v>
+      </c>
+      <c r="E342" s="7">
+        <v>20848</v>
+      </c>
+      <c r="F342" s="7">
+        <v>8706</v>
+      </c>
+      <c r="G342" s="7">
+        <v>9290</v>
+      </c>
+      <c r="H342" s="7">
+        <v>22097</v>
+      </c>
+      <c r="I342" s="7">
+        <v>11376</v>
+      </c>
+      <c r="J342" s="7">
+        <v>1157</v>
       </c>
       <c r="K342" s="5">
         <v>85</v>
@@ -14569,8 +14585,18 @@
       <c r="L342" s="5">
         <v>283</v>
       </c>
-      <c r="M342" s="5">
-        <v>78.441000000000003</v>
+      <c r="M342" s="7">
+        <v>78441</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
